--- a/BusinessDocuments/_W14_Project Plan.xlsx
+++ b/BusinessDocuments/_W14_Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive Data\Computer Science Project\BundleBid\BusinessDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE6F643-6332-4D52-8541-71E470FAC1E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D961DA7-2BAD-431B-BCBD-7895D631CD4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,7 +1216,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1534,9 +1534,6 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1678,6 +1675,109 @@
     <xf numFmtId="0" fontId="8" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1702,159 +1802,50 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1886,16 +1877,7 @@
     <xf numFmtId="49" fontId="1" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1903,6 +1885,57 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1912,42 +1945,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="20" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2322,7 +2319,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -2333,23 +2330,23 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="163"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="199"/>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
@@ -2360,7 +2357,7 @@
       <c r="AD1" s="6"/>
     </row>
     <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="160"/>
+      <c r="A2" s="196"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
@@ -2377,13 +2374,13 @@
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
       <c r="O2" s="58"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="166"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="202"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -2525,10 +2522,10 @@
       <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="168"/>
+      <c r="C5" s="204"/>
       <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
@@ -2566,13 +2563,13 @@
       <c r="AD5" s="10"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="178"/>
       <c r="D6" s="60" t="s">
         <v>20</v>
       </c>
@@ -2610,11 +2607,11 @@
       <c r="AD6" s="10"/>
     </row>
     <row r="7" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="181"/>
-      <c r="B7" s="184" t="s">
+      <c r="A7" s="191"/>
+      <c r="B7" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="185"/>
+      <c r="C7" s="194"/>
       <c r="D7" s="60" t="s">
         <v>20</v>
       </c>
@@ -2652,11 +2649,11 @@
       <c r="AD7" s="59"/>
     </row>
     <row r="8" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="181"/>
-      <c r="B8" s="183" t="s">
+      <c r="A8" s="191"/>
+      <c r="B8" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="178"/>
       <c r="D8" s="60" t="s">
         <v>63</v>
       </c>
@@ -2694,11 +2691,11 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183" t="s">
+      <c r="A9" s="191"/>
+      <c r="B9" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="177"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="60" t="s">
         <v>55</v>
       </c>
@@ -2736,11 +2733,11 @@
       <c r="AD9" s="10"/>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="182"/>
-      <c r="B10" s="169" t="s">
+      <c r="A10" s="192"/>
+      <c r="B10" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="170"/>
+      <c r="C10" s="187"/>
       <c r="D10" s="60" t="s">
         <v>55</v>
       </c>
@@ -2778,30 +2775,30 @@
       <c r="AD10" s="59"/>
     </row>
     <row r="11" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="173"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="180"/>
+      <c r="R11" s="180"/>
+      <c r="S11" s="180"/>
+      <c r="T11" s="180"/>
+      <c r="U11" s="180"/>
+      <c r="V11" s="181"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
@@ -2812,13 +2809,13 @@
       <c r="AD11" s="10"/>
     </row>
     <row r="12" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="177"/>
+      <c r="C12" s="178"/>
       <c r="D12" s="60" t="s">
         <v>53</v>
       </c>
@@ -2856,11 +2853,11 @@
       <c r="AD12" s="10"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="174"/>
-      <c r="B13" s="176" t="s">
+      <c r="A13" s="189"/>
+      <c r="B13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="177"/>
+      <c r="C13" s="178"/>
       <c r="D13" s="60" t="s">
         <v>56</v>
       </c>
@@ -2898,11 +2895,11 @@
       <c r="AD13" s="10"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="174"/>
-      <c r="B14" s="176" t="s">
+      <c r="A14" s="189"/>
+      <c r="B14" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="177"/>
+      <c r="C14" s="178"/>
       <c r="D14" s="60" t="s">
         <v>52</v>
       </c>
@@ -2940,11 +2937,11 @@
       <c r="AD14" s="10"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="174"/>
-      <c r="B15" s="176" t="s">
+      <c r="A15" s="189"/>
+      <c r="B15" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="177"/>
+      <c r="C15" s="178"/>
       <c r="D15" s="72" t="s">
         <v>41</v>
       </c>
@@ -2982,11 +2979,11 @@
       <c r="AD15" s="10"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="174"/>
-      <c r="B16" s="178" t="s">
+      <c r="A16" s="189"/>
+      <c r="B16" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="179"/>
+      <c r="C16" s="165"/>
       <c r="D16" s="72" t="s">
         <v>41</v>
       </c>
@@ -3024,11 +3021,11 @@
       <c r="AD16" s="59"/>
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="174"/>
-      <c r="B17" s="178" t="s">
+      <c r="A17" s="189"/>
+      <c r="B17" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="165"/>
       <c r="D17" s="60" t="s">
         <v>52</v>
       </c>
@@ -3066,11 +3063,11 @@
       <c r="AD17" s="59"/>
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="174"/>
-      <c r="B18" s="178" t="s">
+      <c r="A18" s="189"/>
+      <c r="B18" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="179"/>
+      <c r="C18" s="165"/>
       <c r="D18" s="72" t="s">
         <v>41</v>
       </c>
@@ -3108,11 +3105,11 @@
       <c r="AD18" s="59"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="174"/>
-      <c r="B19" s="178" t="s">
+      <c r="A19" s="189"/>
+      <c r="B19" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="179"/>
+      <c r="C19" s="165"/>
       <c r="D19" s="60" t="s">
         <v>52</v>
       </c>
@@ -3150,11 +3147,11 @@
       <c r="AD19" s="59"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="174"/>
-      <c r="B20" s="178" t="s">
+      <c r="A20" s="189"/>
+      <c r="B20" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="179"/>
+      <c r="C20" s="165"/>
       <c r="D20" s="60" t="s">
         <v>52</v>
       </c>
@@ -3192,11 +3189,11 @@
       <c r="AD20" s="59"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="175"/>
-      <c r="B21" s="176" t="s">
+      <c r="A21" s="190"/>
+      <c r="B21" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="177"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="72" t="s">
         <v>55</v>
       </c>
@@ -3234,30 +3231,30 @@
       <c r="AD21" s="10"/>
     </row>
     <row r="22" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="191" t="s">
+      <c r="A22" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="172"/>
-      <c r="N22" s="172"/>
-      <c r="O22" s="172"/>
-      <c r="P22" s="172"/>
-      <c r="Q22" s="172"/>
-      <c r="R22" s="172"/>
-      <c r="S22" s="172"/>
-      <c r="T22" s="172"/>
-      <c r="U22" s="172"/>
-      <c r="V22" s="173"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="180"/>
+      <c r="S22" s="180"/>
+      <c r="T22" s="180"/>
+      <c r="U22" s="180"/>
+      <c r="V22" s="181"/>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
@@ -3268,13 +3265,13 @@
       <c r="AD22" s="10"/>
     </row>
     <row r="23" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="180" t="s">
+      <c r="A23" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="177"/>
+      <c r="C23" s="178"/>
       <c r="D23" s="60" t="s">
         <v>64</v>
       </c>
@@ -3312,11 +3309,11 @@
       <c r="AD23" s="10"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="192"/>
-      <c r="B24" s="176" t="s">
+      <c r="A24" s="183"/>
+      <c r="B24" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="177"/>
+      <c r="C24" s="178"/>
       <c r="D24" s="60" t="s">
         <v>56</v>
       </c>
@@ -3354,11 +3351,11 @@
       <c r="AD24" s="10"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="192"/>
-      <c r="B25" s="183" t="s">
+      <c r="A25" s="183"/>
+      <c r="B25" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="177"/>
+      <c r="C25" s="178"/>
       <c r="D25" s="60" t="s">
         <v>64</v>
       </c>
@@ -3396,11 +3393,11 @@
       <c r="AD25" s="10"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="193"/>
-      <c r="B26" s="183" t="s">
+      <c r="A26" s="184"/>
+      <c r="B26" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="177"/>
+      <c r="C26" s="178"/>
       <c r="D26" s="60" t="s">
         <v>52</v>
       </c>
@@ -3438,30 +3435,30 @@
       <c r="AD26" s="10"/>
     </row>
     <row r="27" spans="1:30" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="186" t="s">
+      <c r="A27" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="187"/>
-      <c r="P27" s="187"/>
-      <c r="Q27" s="187"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="187"/>
-      <c r="T27" s="187"/>
-      <c r="U27" s="187"/>
-      <c r="V27" s="188"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="172"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="172"/>
+      <c r="T27" s="172"/>
+      <c r="U27" s="172"/>
+      <c r="V27" s="173"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
@@ -3472,13 +3469,13 @@
       <c r="AD27" s="10"/>
     </row>
     <row r="28" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="189" t="s">
+      <c r="A28" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="198" t="s">
+      <c r="B28" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="199"/>
+      <c r="C28" s="163"/>
       <c r="D28" s="60" t="s">
         <v>64</v>
       </c>
@@ -3516,11 +3513,11 @@
       <c r="AD28" s="10"/>
     </row>
     <row r="29" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="190"/>
-      <c r="B29" s="200" t="s">
+      <c r="A29" s="175"/>
+      <c r="B29" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="179"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="60" t="s">
         <v>64</v>
       </c>
@@ -3558,30 +3555,30 @@
       <c r="AD29" s="10"/>
     </row>
     <row r="30" spans="1:30" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="201" t="s">
+      <c r="A30" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="202"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="202"/>
-      <c r="O30" s="202"/>
-      <c r="P30" s="202"/>
-      <c r="Q30" s="202"/>
-      <c r="R30" s="202"/>
-      <c r="S30" s="202"/>
-      <c r="T30" s="202"/>
-      <c r="U30" s="202"/>
-      <c r="V30" s="203"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="167"/>
+      <c r="L30" s="167"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="167"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="167"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="167"/>
+      <c r="S30" s="167"/>
+      <c r="T30" s="167"/>
+      <c r="U30" s="167"/>
+      <c r="V30" s="168"/>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
@@ -3592,13 +3589,13 @@
       <c r="AD30" s="10"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="204" t="s">
+      <c r="A31" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="200" t="s">
+      <c r="B31" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="179"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="74" t="s">
         <v>54</v>
       </c>
@@ -3636,11 +3633,11 @@
       <c r="AD31" s="10"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="205"/>
-      <c r="B32" s="200" t="s">
+      <c r="A32" s="170"/>
+      <c r="B32" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="179"/>
+      <c r="C32" s="165"/>
       <c r="D32" s="74" t="s">
         <v>54</v>
       </c>
@@ -3678,11 +3675,11 @@
       <c r="AD32" s="10"/>
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="205"/>
-      <c r="B33" s="200" t="s">
+      <c r="A33" s="170"/>
+      <c r="B33" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="179"/>
+      <c r="C33" s="165"/>
       <c r="D33" s="74" t="s">
         <v>54</v>
       </c>
@@ -3720,11 +3717,11 @@
       <c r="AD33" s="10"/>
     </row>
     <row r="34" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="205"/>
-      <c r="B34" s="200" t="s">
+      <c r="A34" s="170"/>
+      <c r="B34" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="179"/>
+      <c r="C34" s="165"/>
       <c r="D34" s="74" t="s">
         <v>54</v>
       </c>
@@ -3762,11 +3759,11 @@
       <c r="AD34" s="10"/>
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="205"/>
-      <c r="B35" s="200" t="s">
+      <c r="A35" s="170"/>
+      <c r="B35" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="179"/>
+      <c r="C35" s="165"/>
       <c r="D35" s="72" t="s">
         <v>20</v>
       </c>
@@ -3804,30 +3801,30 @@
       <c r="AD35" s="10"/>
     </row>
     <row r="36" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="194" t="s">
+      <c r="A36" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="194"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="194"/>
-      <c r="L36" s="194"/>
-      <c r="M36" s="194"/>
-      <c r="N36" s="194"/>
-      <c r="O36" s="194"/>
-      <c r="P36" s="194"/>
-      <c r="Q36" s="194"/>
-      <c r="R36" s="194"/>
-      <c r="S36" s="194"/>
-      <c r="T36" s="194"/>
-      <c r="U36" s="194"/>
-      <c r="V36" s="195"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
+      <c r="K36" s="158"/>
+      <c r="L36" s="158"/>
+      <c r="M36" s="158"/>
+      <c r="N36" s="158"/>
+      <c r="O36" s="158"/>
+      <c r="P36" s="158"/>
+      <c r="Q36" s="158"/>
+      <c r="R36" s="158"/>
+      <c r="S36" s="158"/>
+      <c r="T36" s="158"/>
+      <c r="U36" s="158"/>
+      <c r="V36" s="159"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
@@ -3841,10 +3838,10 @@
       <c r="A37" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="196" t="s">
+      <c r="B37" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="197"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="74" t="s">
         <v>20</v>
       </c>
@@ -32875,28 +32872,11 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A36:V36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A30:V30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A27:V27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:V22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:V11"/>
     <mergeCell ref="A12:A21"/>
@@ -32912,11 +32892,28 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A27:V27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:V22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A36:V36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A30:V30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32927,8 +32924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -32947,34 +32944,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="127"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="163"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="199"/>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
@@ -32985,9 +32982,9 @@
       <c r="AD1" s="6"/>
     </row>
     <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="160"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="131"/>
+      <c r="A2" s="196"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
@@ -33002,13 +32999,13 @@
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
       <c r="O2" s="58"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="166"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="202"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -33150,10 +33147,10 @@
       <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="238"/>
+      <c r="C5" s="232"/>
       <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
@@ -33166,21 +33163,21 @@
       <c r="G5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="125"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="124"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
@@ -33191,13 +33188,13 @@
       <c r="AD5" s="10"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="214"/>
+      <c r="C6" s="234"/>
       <c r="D6" s="85" t="s">
         <v>20</v>
       </c>
@@ -33207,10 +33204,10 @@
       <c r="F6" s="97">
         <v>43858</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="119">
         <v>1</v>
       </c>
-      <c r="H6" s="126"/>
+      <c r="H6" s="125"/>
       <c r="I6" s="85"/>
       <c r="J6" s="87"/>
       <c r="K6" s="87"/>
@@ -33235,11 +33232,11 @@
       <c r="AD6" s="10"/>
     </row>
     <row r="7" spans="1:30" s="56" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="231"/>
-      <c r="B7" s="211" t="s">
+      <c r="A7" s="228"/>
+      <c r="B7" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="212"/>
+      <c r="C7" s="241"/>
       <c r="D7" s="85" t="s">
         <v>20</v>
       </c>
@@ -33249,10 +33246,10 @@
       <c r="F7" s="84">
         <v>43858</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="119">
         <v>1</v>
       </c>
-      <c r="H7" s="126"/>
+      <c r="H7" s="125"/>
       <c r="I7" s="85"/>
       <c r="J7" s="89"/>
       <c r="K7" s="90"/>
@@ -33277,12 +33274,12 @@
       <c r="AD7" s="59"/>
     </row>
     <row r="8" spans="1:30" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="231"/>
-      <c r="B8" s="213" t="s">
+      <c r="A8" s="228"/>
+      <c r="B8" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="154" t="s">
+      <c r="C8" s="234"/>
+      <c r="D8" s="153" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="84">
@@ -33291,11 +33288,11 @@
       <c r="F8" s="97">
         <v>43865</v>
       </c>
-      <c r="G8" s="121">
+      <c r="G8" s="120">
         <v>1</v>
       </c>
       <c r="H8" s="85"/>
-      <c r="I8" s="126"/>
+      <c r="I8" s="125"/>
       <c r="J8" s="92"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85"/>
@@ -33319,11 +33316,11 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="231"/>
-      <c r="B9" s="213" t="s">
+      <c r="A9" s="228"/>
+      <c r="B9" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="214"/>
+      <c r="C9" s="234"/>
       <c r="D9" s="85" t="s">
         <v>55</v>
       </c>
@@ -33333,12 +33330,12 @@
       <c r="F9" s="84">
         <v>43507</v>
       </c>
-      <c r="G9" s="122">
+      <c r="G9" s="121">
         <v>1</v>
       </c>
       <c r="H9" s="85"/>
       <c r="I9" s="94"/>
-      <c r="J9" s="126"/>
+      <c r="J9" s="125"/>
       <c r="K9" s="86"/>
       <c r="L9" s="85"/>
       <c r="M9" s="85"/>
@@ -33361,11 +33358,11 @@
       <c r="AD9" s="10"/>
     </row>
     <row r="10" spans="1:30" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="232"/>
-      <c r="B10" s="215" t="s">
+      <c r="A10" s="229"/>
+      <c r="B10" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="216"/>
+      <c r="C10" s="243"/>
       <c r="D10" s="85" t="s">
         <v>55</v>
       </c>
@@ -33375,13 +33372,13 @@
       <c r="F10" s="84">
         <v>43514</v>
       </c>
-      <c r="G10" s="122">
+      <c r="G10" s="121">
         <v>1</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85"/>
       <c r="J10" s="85"/>
-      <c r="K10" s="126"/>
+      <c r="K10" s="125"/>
       <c r="L10" s="85"/>
       <c r="M10" s="85"/>
       <c r="N10" s="85"/>
@@ -33403,30 +33400,30 @@
       <c r="AD10" s="59"/>
     </row>
     <row r="11" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="229"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="173"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="180"/>
+      <c r="R11" s="180"/>
+      <c r="S11" s="180"/>
+      <c r="T11" s="180"/>
+      <c r="U11" s="180"/>
+      <c r="V11" s="181"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
@@ -33437,14 +33434,14 @@
       <c r="AD11" s="10"/>
     </row>
     <row r="12" spans="1:30" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="227" t="s">
+      <c r="A12" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="233" t="s">
+      <c r="B12" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="234"/>
-      <c r="D12" s="132" t="s">
+      <c r="C12" s="216"/>
+      <c r="D12" s="131" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="98">
@@ -33453,14 +33450,14 @@
       <c r="F12" s="98">
         <v>43886</v>
       </c>
-      <c r="G12" s="119">
+      <c r="G12" s="118">
         <v>1</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="126"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
@@ -33481,12 +33478,12 @@
       <c r="AD12" s="10"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="227"/>
-      <c r="B13" s="233" t="s">
+      <c r="A13" s="224"/>
+      <c r="B13" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="133" t="s">
+      <c r="C13" s="216"/>
+      <c r="D13" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="98">
@@ -33495,14 +33492,14 @@
       <c r="F13" s="98">
         <v>43886</v>
       </c>
-      <c r="G13" s="119">
+      <c r="G13" s="118">
         <v>1</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="126"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
@@ -33523,28 +33520,28 @@
       <c r="AD13" s="10"/>
     </row>
     <row r="14" spans="1:30" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="227"/>
-      <c r="B14" s="135" t="s">
+      <c r="A14" s="224"/>
+      <c r="B14" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="138" t="s">
+      <c r="C14" s="133"/>
+      <c r="D14" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="139">
+      <c r="E14" s="138">
         <v>43880</v>
       </c>
-      <c r="F14" s="139">
+      <c r="F14" s="138">
         <v>43886</v>
       </c>
-      <c r="G14" s="140">
+      <c r="G14" s="139">
         <v>1</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="126"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
@@ -33565,29 +33562,29 @@
       <c r="AD14" s="59"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="227"/>
-      <c r="B15" s="136" t="s">
+      <c r="A15" s="224"/>
+      <c r="B15" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="145" t="s">
+      <c r="C15" s="135"/>
+      <c r="D15" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="146">
+      <c r="E15" s="145">
         <v>43887</v>
       </c>
-      <c r="F15" s="146">
+      <c r="F15" s="145">
         <v>43893</v>
       </c>
-      <c r="G15" s="147">
+      <c r="G15" s="146">
         <v>1</v>
       </c>
-      <c r="H15" s="137"/>
+      <c r="H15" s="136"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="126"/>
+      <c r="M15" s="125"/>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
@@ -33607,21 +33604,21 @@
       <c r="AD15" s="10"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="227"/>
-      <c r="B16" s="233" t="s">
+      <c r="A16" s="224"/>
+      <c r="B16" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="234"/>
-      <c r="D16" s="141" t="s">
+      <c r="C16" s="216"/>
+      <c r="D16" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="142">
+      <c r="E16" s="141">
         <v>43887</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="141">
         <v>43893</v>
       </c>
-      <c r="G16" s="147">
+      <c r="G16" s="146">
         <v>1</v>
       </c>
       <c r="H16" s="35"/>
@@ -33629,7 +33626,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="126"/>
+      <c r="M16" s="125"/>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
@@ -33649,11 +33646,11 @@
       <c r="AD16" s="10"/>
     </row>
     <row r="17" spans="1:30" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="227"/>
-      <c r="B17" s="233" t="s">
+      <c r="A17" s="224"/>
+      <c r="B17" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="234"/>
+      <c r="C17" s="216"/>
       <c r="D17" s="35" t="s">
         <v>55</v>
       </c>
@@ -33663,7 +33660,7 @@
       <c r="F17" s="98">
         <v>43893</v>
       </c>
-      <c r="G17" s="147">
+      <c r="G17" s="146">
         <v>1</v>
       </c>
       <c r="H17" s="35"/>
@@ -33671,7 +33668,7 @@
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="126"/>
+      <c r="M17" s="125"/>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
@@ -33691,21 +33688,21 @@
       <c r="AD17" s="59"/>
     </row>
     <row r="18" spans="1:30" s="56" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="227"/>
-      <c r="B18" s="242" t="s">
+      <c r="A18" s="224"/>
+      <c r="B18" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="143" t="s">
+      <c r="C18" s="218"/>
+      <c r="D18" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="144">
+      <c r="E18" s="143">
         <v>43887</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="143">
         <v>43893</v>
       </c>
-      <c r="G18" s="147">
+      <c r="G18" s="146">
         <v>1</v>
       </c>
       <c r="H18" s="35"/>
@@ -33713,7 +33710,7 @@
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="126"/>
+      <c r="M18" s="125"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
@@ -33733,11 +33730,11 @@
       <c r="AD18" s="59"/>
     </row>
     <row r="19" spans="1:30" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="227"/>
-      <c r="B19" s="233" t="s">
+      <c r="A19" s="224"/>
+      <c r="B19" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="234"/>
+      <c r="C19" s="216"/>
       <c r="D19" s="35" t="s">
         <v>41</v>
       </c>
@@ -33747,7 +33744,7 @@
       <c r="F19" s="98">
         <v>43900</v>
       </c>
-      <c r="G19" s="147">
+      <c r="G19" s="146">
         <v>1</v>
       </c>
       <c r="H19" s="35"/>
@@ -33756,7 +33753,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
-      <c r="N19" s="126"/>
+      <c r="N19" s="125"/>
       <c r="O19" s="35"/>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
@@ -33775,12 +33772,12 @@
       <c r="AD19" s="59"/>
     </row>
     <row r="20" spans="1:30" s="56" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="227"/>
-      <c r="B20" s="235" t="s">
+      <c r="A20" s="224"/>
+      <c r="B20" s="230" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="236"/>
-      <c r="D20" s="153" t="s">
+      <c r="C20" s="218"/>
+      <c r="D20" s="152" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="98">
@@ -33789,7 +33786,7 @@
       <c r="F20" s="98">
         <v>43900</v>
       </c>
-      <c r="G20" s="147">
+      <c r="G20" s="146">
         <v>1</v>
       </c>
       <c r="H20" s="35"/>
@@ -33798,7 +33795,7 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
-      <c r="N20" s="126"/>
+      <c r="N20" s="125"/>
       <c r="O20" s="35"/>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
@@ -33817,12 +33814,12 @@
       <c r="AD20" s="59"/>
     </row>
     <row r="21" spans="1:30" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="227"/>
-      <c r="B21" s="233" t="s">
+      <c r="A21" s="224"/>
+      <c r="B21" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="234"/>
-      <c r="D21" s="133" t="s">
+      <c r="C21" s="216"/>
+      <c r="D21" s="132" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="98">
@@ -33831,7 +33828,7 @@
       <c r="F21" s="98">
         <v>43900</v>
       </c>
-      <c r="G21" s="147">
+      <c r="G21" s="146">
         <v>1</v>
       </c>
       <c r="H21" s="35"/>
@@ -33840,7 +33837,7 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="126"/>
+      <c r="N21" s="125"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
@@ -33859,11 +33856,11 @@
       <c r="AD21" s="59"/>
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="228"/>
-      <c r="B22" s="233" t="s">
+      <c r="A22" s="225"/>
+      <c r="B22" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="234"/>
+      <c r="C22" s="216"/>
       <c r="D22" s="35" t="s">
         <v>55</v>
       </c>
@@ -33873,7 +33870,7 @@
       <c r="F22" s="98">
         <v>43900</v>
       </c>
-      <c r="G22" s="147">
+      <c r="G22" s="146">
         <v>1</v>
       </c>
       <c r="H22" s="35"/>
@@ -33882,7 +33879,7 @@
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
       <c r="M22" s="99"/>
-      <c r="N22" s="126"/>
+      <c r="N22" s="125"/>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -33901,30 +33898,30 @@
       <c r="AD22" s="10"/>
     </row>
     <row r="23" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="191" t="s">
+      <c r="A23" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="172"/>
-      <c r="C23" s="229"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="172"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="172"/>
-      <c r="P23" s="172"/>
-      <c r="Q23" s="172"/>
-      <c r="R23" s="172"/>
-      <c r="S23" s="172"/>
-      <c r="T23" s="172"/>
-      <c r="U23" s="172"/>
-      <c r="V23" s="173"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="180"/>
+      <c r="Q23" s="180"/>
+      <c r="R23" s="180"/>
+      <c r="S23" s="180"/>
+      <c r="T23" s="180"/>
+      <c r="U23" s="180"/>
+      <c r="V23" s="181"/>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
@@ -33935,23 +33932,23 @@
       <c r="AD23" s="10"/>
     </row>
     <row r="24" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="223" t="s">
+      <c r="A24" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="219" t="s">
+      <c r="B24" s="246" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="220"/>
-      <c r="D24" s="151" t="s">
+      <c r="C24" s="247"/>
+      <c r="D24" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="127">
+      <c r="E24" s="126">
         <v>43907</v>
       </c>
-      <c r="F24" s="127">
+      <c r="F24" s="126">
         <v>43914</v>
       </c>
-      <c r="G24" s="118">
+      <c r="G24" s="117">
         <v>1</v>
       </c>
       <c r="H24" s="100"/>
@@ -33961,8 +33958,8 @@
       <c r="L24" s="100"/>
       <c r="M24" s="100"/>
       <c r="N24" s="100"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="126"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="125"/>
       <c r="Q24" s="101"/>
       <c r="R24" s="100"/>
       <c r="S24" s="100"/>
@@ -33979,21 +33976,21 @@
       <c r="AD24" s="10"/>
     </row>
     <row r="25" spans="1:30" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="224"/>
-      <c r="B25" s="148" t="s">
+      <c r="A25" s="221"/>
+      <c r="B25" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="149"/>
-      <c r="D25" s="151" t="s">
+      <c r="C25" s="148"/>
+      <c r="D25" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="127">
+      <c r="E25" s="126">
         <v>43907</v>
       </c>
-      <c r="F25" s="127">
+      <c r="F25" s="126">
         <v>43914</v>
       </c>
-      <c r="G25" s="118">
+      <c r="G25" s="117">
         <v>1</v>
       </c>
       <c r="H25" s="100"/>
@@ -34003,8 +34000,8 @@
       <c r="L25" s="100"/>
       <c r="M25" s="100"/>
       <c r="N25" s="100"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="126"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="125"/>
       <c r="Q25" s="101"/>
       <c r="R25" s="100"/>
       <c r="S25" s="100"/>
@@ -34021,21 +34018,21 @@
       <c r="AD25" s="59"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="225"/>
-      <c r="B26" s="219" t="s">
+      <c r="A26" s="222"/>
+      <c r="B26" s="246" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="220"/>
-      <c r="D26" s="151" t="s">
+      <c r="C26" s="247"/>
+      <c r="D26" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="127">
+      <c r="E26" s="126">
         <v>43907</v>
       </c>
-      <c r="F26" s="127">
+      <c r="F26" s="126">
         <v>43914</v>
       </c>
-      <c r="G26" s="118">
+      <c r="G26" s="117">
         <v>1</v>
       </c>
       <c r="H26" s="100"/>
@@ -34045,8 +34042,8 @@
       <c r="L26" s="100"/>
       <c r="M26" s="100"/>
       <c r="N26" s="100"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="126"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="125"/>
       <c r="Q26" s="100"/>
       <c r="R26" s="100"/>
       <c r="S26" s="100"/>
@@ -34063,21 +34060,21 @@
       <c r="AD26" s="10"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="225"/>
-      <c r="B27" s="221" t="s">
+      <c r="A27" s="222"/>
+      <c r="B27" s="248" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="222"/>
+      <c r="C27" s="249"/>
       <c r="D27" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="127">
+      <c r="E27" s="126">
         <v>43922</v>
       </c>
-      <c r="F27" s="127">
+      <c r="F27" s="126">
         <v>43928</v>
       </c>
-      <c r="G27" s="118">
+      <c r="G27" s="117">
         <v>1</v>
       </c>
       <c r="H27" s="100"/>
@@ -34089,7 +34086,7 @@
       <c r="N27" s="100"/>
       <c r="O27" s="100"/>
       <c r="P27" s="100"/>
-      <c r="Q27" s="126"/>
+      <c r="Q27" s="125"/>
       <c r="R27" s="101"/>
       <c r="S27" s="100"/>
       <c r="T27" s="100"/>
@@ -34105,21 +34102,21 @@
       <c r="AD27" s="10"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="226"/>
-      <c r="B28" s="221" t="s">
+      <c r="A28" s="223"/>
+      <c r="B28" s="248" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="222"/>
+      <c r="C28" s="249"/>
       <c r="D28" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="127">
+      <c r="E28" s="126">
         <v>43922</v>
       </c>
-      <c r="F28" s="127">
+      <c r="F28" s="126">
         <v>43928</v>
       </c>
-      <c r="G28" s="118">
+      <c r="G28" s="117">
         <v>1</v>
       </c>
       <c r="H28" s="100"/>
@@ -34131,7 +34128,7 @@
       <c r="N28" s="100"/>
       <c r="O28" s="100"/>
       <c r="P28" s="100"/>
-      <c r="Q28" s="126"/>
+      <c r="Q28" s="125"/>
       <c r="R28" s="101"/>
       <c r="S28" s="100"/>
       <c r="T28" s="100"/>
@@ -34147,30 +34144,30 @@
       <c r="AD28" s="10"/>
     </row>
     <row r="29" spans="1:30" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="186" t="s">
+      <c r="A29" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="187"/>
-      <c r="C29" s="229"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="187"/>
-      <c r="P29" s="187"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="187"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="188"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="172"/>
+      <c r="S29" s="172"/>
+      <c r="T29" s="172"/>
+      <c r="U29" s="172"/>
+      <c r="V29" s="173"/>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
@@ -34181,42 +34178,42 @@
       <c r="AD29" s="10"/>
     </row>
     <row r="30" spans="1:30" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="243" t="s">
+      <c r="A30" s="211" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="248" t="s">
+      <c r="B30" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="250" t="s">
+      <c r="D30" s="210" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="83">
         <v>43922</v>
       </c>
-      <c r="F30" s="157">
+      <c r="F30" s="156">
         <v>43949</v>
       </c>
-      <c r="G30" s="117">
+      <c r="G30" s="116">
         <v>1</v>
       </c>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="111"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="110"/>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
@@ -34227,36 +34224,36 @@
       <c r="AD30" s="10"/>
     </row>
     <row r="31" spans="1:30" s="56" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="243"/>
-      <c r="B31" s="248"/>
-      <c r="C31" s="155" t="s">
+      <c r="A31" s="211"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="243"/>
+      <c r="D31" s="211"/>
       <c r="E31" s="83">
         <v>43922</v>
       </c>
-      <c r="F31" s="157">
+      <c r="F31" s="156">
         <v>43949</v>
       </c>
-      <c r="G31" s="117">
+      <c r="G31" s="116">
         <v>1</v>
       </c>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="111"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="110"/>
       <c r="W31" s="59"/>
       <c r="X31" s="59"/>
       <c r="Y31" s="59"/>
@@ -34267,36 +34264,36 @@
       <c r="AD31" s="59"/>
     </row>
     <row r="32" spans="1:30" s="56" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="244"/>
-      <c r="B32" s="249"/>
-      <c r="C32" s="156" t="s">
+      <c r="A32" s="219"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="251"/>
+      <c r="D32" s="212"/>
       <c r="E32" s="83">
         <v>43922</v>
       </c>
-      <c r="F32" s="157">
+      <c r="F32" s="156">
         <v>43949</v>
       </c>
-      <c r="G32" s="117">
+      <c r="G32" s="116">
         <v>1</v>
       </c>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="126"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="111"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="110"/>
       <c r="W32" s="59"/>
       <c r="X32" s="59"/>
       <c r="Y32" s="59"/>
@@ -34307,40 +34304,40 @@
       <c r="AD32" s="59"/>
     </row>
     <row r="33" spans="1:30" s="56" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="243"/>
-      <c r="B33" s="217" t="s">
+      <c r="A33" s="211"/>
+      <c r="B33" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="252" t="s">
+      <c r="D33" s="213" t="s">
         <v>78</v>
       </c>
       <c r="E33" s="83">
         <v>43922</v>
       </c>
-      <c r="F33" s="157">
+      <c r="F33" s="156">
         <v>43942</v>
       </c>
-      <c r="G33" s="117">
+      <c r="G33" s="116">
         <v>1</v>
       </c>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="125"/>
+      <c r="S33" s="125"/>
+      <c r="T33" s="125"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="110"/>
       <c r="W33" s="59"/>
       <c r="X33" s="59"/>
       <c r="Y33" s="59"/>
@@ -34351,36 +34348,36 @@
       <c r="AD33" s="59"/>
     </row>
     <row r="34" spans="1:30" s="56" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="243"/>
-      <c r="B34" s="218"/>
-      <c r="C34" s="110" t="s">
+      <c r="A34" s="211"/>
+      <c r="B34" s="245"/>
+      <c r="C34" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="253"/>
+      <c r="D34" s="214"/>
       <c r="E34" s="83">
         <v>43922</v>
       </c>
-      <c r="F34" s="157">
+      <c r="F34" s="156">
         <v>43942</v>
       </c>
-      <c r="G34" s="117">
+      <c r="G34" s="116">
         <v>1</v>
       </c>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="111"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="125"/>
+      <c r="T34" s="125"/>
+      <c r="U34" s="110"/>
+      <c r="V34" s="110"/>
       <c r="W34" s="59"/>
       <c r="X34" s="59"/>
       <c r="Y34" s="59"/>
@@ -34391,30 +34388,30 @@
       <c r="AD34" s="59"/>
     </row>
     <row r="35" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="201" t="s">
+      <c r="A35" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="201"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="201"/>
-      <c r="H35" s="201"/>
-      <c r="I35" s="201"/>
-      <c r="J35" s="201"/>
-      <c r="K35" s="201"/>
-      <c r="L35" s="201"/>
-      <c r="M35" s="201"/>
-      <c r="N35" s="201"/>
-      <c r="O35" s="201"/>
-      <c r="P35" s="201"/>
-      <c r="Q35" s="201"/>
-      <c r="R35" s="201"/>
-      <c r="S35" s="201"/>
-      <c r="T35" s="201"/>
-      <c r="U35" s="201"/>
-      <c r="V35" s="239"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="166"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="166"/>
+      <c r="P35" s="166"/>
+      <c r="Q35" s="166"/>
+      <c r="R35" s="166"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="166"/>
+      <c r="U35" s="166"/>
+      <c r="V35" s="250"/>
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
@@ -34425,14 +34422,14 @@
       <c r="AD35" s="10"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="240" t="s">
+      <c r="A36" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="245" t="s">
+      <c r="B36" s="205" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="246"/>
-      <c r="D36" s="158" t="s">
+      <c r="C36" s="206"/>
+      <c r="D36" s="157" t="s">
         <v>81</v>
       </c>
       <c r="E36" s="103">
@@ -34441,7 +34438,7 @@
       <c r="F36" s="103">
         <v>43935</v>
       </c>
-      <c r="G36" s="116">
+      <c r="G36" s="115">
         <v>1</v>
       </c>
       <c r="H36" s="102"/>
@@ -34454,7 +34451,7 @@
       <c r="O36" s="102"/>
       <c r="P36" s="102"/>
       <c r="Q36" s="102"/>
-      <c r="R36" s="126"/>
+      <c r="R36" s="125"/>
       <c r="S36" s="104"/>
       <c r="T36" s="102"/>
       <c r="U36" s="102"/>
@@ -34469,11 +34466,11 @@
       <c r="AD36" s="10"/>
     </row>
     <row r="37" spans="1:30" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="241"/>
-      <c r="B37" s="247" t="s">
+      <c r="A37" s="252"/>
+      <c r="B37" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="246"/>
+      <c r="C37" s="206"/>
       <c r="D37" s="102" t="s">
         <v>56</v>
       </c>
@@ -34483,7 +34480,7 @@
       <c r="F37" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="116">
+      <c r="G37" s="115">
         <v>1</v>
       </c>
       <c r="H37" s="102"/>
@@ -34497,9 +34494,9 @@
       <c r="P37" s="102"/>
       <c r="Q37" s="102"/>
       <c r="R37" s="102"/>
-      <c r="S37" s="126"/>
-      <c r="T37" s="126"/>
-      <c r="U37" s="126"/>
+      <c r="S37" s="125"/>
+      <c r="T37" s="125"/>
+      <c r="U37" s="125"/>
       <c r="V37" s="102"/>
       <c r="W37" s="59"/>
       <c r="X37" s="59"/>
@@ -34511,8 +34508,8 @@
       <c r="AD37" s="59"/>
     </row>
     <row r="38" spans="1:30" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="241"/>
-      <c r="B38" s="208" t="s">
+      <c r="A38" s="252"/>
+      <c r="B38" s="237" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="105" t="s">
@@ -34527,7 +34524,7 @@
       <c r="F38" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="116">
+      <c r="G38" s="115">
         <v>1</v>
       </c>
       <c r="H38" s="102"/>
@@ -34541,9 +34538,9 @@
       <c r="P38" s="102"/>
       <c r="Q38" s="102"/>
       <c r="R38" s="102"/>
-      <c r="S38" s="126"/>
-      <c r="T38" s="126"/>
-      <c r="U38" s="126"/>
+      <c r="S38" s="125"/>
+      <c r="T38" s="125"/>
+      <c r="U38" s="125"/>
       <c r="V38" s="102"/>
       <c r="W38" s="59"/>
       <c r="X38" s="59"/>
@@ -34555,8 +34552,8 @@
       <c r="AD38" s="59"/>
     </row>
     <row r="39" spans="1:30" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="241"/>
-      <c r="B39" s="209"/>
+      <c r="A39" s="252"/>
+      <c r="B39" s="238"/>
       <c r="C39" s="105" t="s">
         <v>22</v>
       </c>
@@ -34569,7 +34566,7 @@
       <c r="F39" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="116">
+      <c r="G39" s="115">
         <v>1</v>
       </c>
       <c r="H39" s="102"/>
@@ -34583,9 +34580,9 @@
       <c r="P39" s="102"/>
       <c r="Q39" s="102"/>
       <c r="R39" s="102"/>
-      <c r="S39" s="126"/>
-      <c r="T39" s="126"/>
-      <c r="U39" s="126"/>
+      <c r="S39" s="125"/>
+      <c r="T39" s="125"/>
+      <c r="U39" s="125"/>
       <c r="V39" s="102"/>
       <c r="W39" s="59"/>
       <c r="X39" s="59"/>
@@ -34597,8 +34594,8 @@
       <c r="AD39" s="59"/>
     </row>
     <row r="40" spans="1:30" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="241"/>
-      <c r="B40" s="210"/>
+      <c r="A40" s="252"/>
+      <c r="B40" s="239"/>
       <c r="C40" s="105" t="s">
         <v>61</v>
       </c>
@@ -34611,7 +34608,7 @@
       <c r="F40" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="G40" s="116">
+      <c r="G40" s="115">
         <v>1</v>
       </c>
       <c r="H40" s="102"/>
@@ -34625,9 +34622,9 @@
       <c r="P40" s="102"/>
       <c r="Q40" s="102"/>
       <c r="R40" s="102"/>
-      <c r="S40" s="126"/>
-      <c r="T40" s="126"/>
-      <c r="U40" s="126"/>
+      <c r="S40" s="125"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="125"/>
       <c r="V40" s="102"/>
       <c r="W40" s="59"/>
       <c r="X40" s="59"/>
@@ -34639,8 +34636,8 @@
       <c r="AD40" s="59"/>
     </row>
     <row r="41" spans="1:30" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="241"/>
-      <c r="B41" s="208" t="s">
+      <c r="A41" s="252"/>
+      <c r="B41" s="237" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="105" t="s">
@@ -34655,7 +34652,7 @@
       <c r="F41" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="116">
+      <c r="G41" s="115">
         <v>1</v>
       </c>
       <c r="H41" s="102"/>
@@ -34669,8 +34666,8 @@
       <c r="P41" s="102"/>
       <c r="Q41" s="102"/>
       <c r="R41" s="102"/>
-      <c r="S41" s="126"/>
-      <c r="T41" s="126"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
       <c r="U41" s="102"/>
       <c r="V41" s="102"/>
       <c r="W41" s="59"/>
@@ -34683,8 +34680,8 @@
       <c r="AD41" s="59"/>
     </row>
     <row r="42" spans="1:30" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="241"/>
-      <c r="B42" s="209"/>
+      <c r="A42" s="252"/>
+      <c r="B42" s="238"/>
       <c r="C42" s="105" t="s">
         <v>22</v>
       </c>
@@ -34697,7 +34694,7 @@
       <c r="F42" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="116">
+      <c r="G42" s="115">
         <v>1</v>
       </c>
       <c r="H42" s="102"/>
@@ -34711,8 +34708,8 @@
       <c r="P42" s="102"/>
       <c r="Q42" s="102"/>
       <c r="R42" s="102"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="126"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
       <c r="U42" s="102"/>
       <c r="V42" s="102"/>
       <c r="W42" s="59"/>
@@ -34725,8 +34722,8 @@
       <c r="AD42" s="59"/>
     </row>
     <row r="43" spans="1:30" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="241"/>
-      <c r="B43" s="210"/>
+      <c r="A43" s="252"/>
+      <c r="B43" s="239"/>
       <c r="C43" s="105" t="s">
         <v>61</v>
       </c>
@@ -34739,7 +34736,7 @@
       <c r="F43" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="116">
+      <c r="G43" s="115">
         <v>1</v>
       </c>
       <c r="H43" s="102"/>
@@ -34753,8 +34750,8 @@
       <c r="P43" s="102"/>
       <c r="Q43" s="102"/>
       <c r="R43" s="102"/>
-      <c r="S43" s="126"/>
-      <c r="T43" s="126"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
       <c r="U43" s="102"/>
       <c r="V43" s="102"/>
       <c r="W43" s="59"/>
@@ -34767,30 +34764,30 @@
       <c r="AD43" s="59"/>
     </row>
     <row r="44" spans="1:30" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="194" t="s">
+      <c r="A44" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="194"/>
-      <c r="C44" s="194"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="194"/>
-      <c r="L44" s="194"/>
-      <c r="M44" s="194"/>
-      <c r="N44" s="194"/>
-      <c r="O44" s="194"/>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="194"/>
-      <c r="R44" s="194"/>
-      <c r="S44" s="194"/>
-      <c r="T44" s="194"/>
-      <c r="U44" s="194"/>
-      <c r="V44" s="195"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="158"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="158"/>
+      <c r="H44" s="158"/>
+      <c r="I44" s="158"/>
+      <c r="J44" s="158"/>
+      <c r="K44" s="158"/>
+      <c r="L44" s="158"/>
+      <c r="M44" s="158"/>
+      <c r="N44" s="158"/>
+      <c r="O44" s="158"/>
+      <c r="P44" s="158"/>
+      <c r="Q44" s="158"/>
+      <c r="R44" s="158"/>
+      <c r="S44" s="158"/>
+      <c r="T44" s="158"/>
+      <c r="U44" s="158"/>
+      <c r="V44" s="159"/>
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
@@ -34804,21 +34801,21 @@
       <c r="A45" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="206" t="s">
+      <c r="B45" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="207"/>
-      <c r="D45" s="113" t="s">
+      <c r="C45" s="236"/>
+      <c r="D45" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="114">
+      <c r="E45" s="113">
         <v>43956</v>
       </c>
-      <c r="F45" s="114">
+      <c r="F45" s="113">
         <v>43956</v>
       </c>
-      <c r="G45" s="115">
-        <v>0</v>
+      <c r="G45" s="114">
+        <v>1</v>
       </c>
       <c r="H45" s="107"/>
       <c r="I45" s="107"/>
@@ -34834,7 +34831,7 @@
       <c r="S45" s="86"/>
       <c r="T45" s="107"/>
       <c r="U45" s="107"/>
-      <c r="V45" s="109"/>
+      <c r="V45" s="125"/>
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
@@ -65534,16 +65531,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A44:V44"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A12:A22"/>
@@ -65560,22 +65563,16 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A44:V44"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
